--- a/archive/foot_stats.xlsx
+++ b/archive/foot_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\Downloads\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B5D97A-12DC-4033-A3F2-22DA0FC5ABB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A0165-FB54-4D28-9B64-D40002E9107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foot_stats" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Top Team Scorer</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>Barcelona  - ESP</t>
   </si>
   <si>
@@ -647,12 +644,15 @@
   </si>
   <si>
     <t xml:space="preserve">Adrien Hunou Sofiane Boufal </t>
+  </si>
+  <si>
+    <t>QG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1486,12 +1486,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1522,15 +1528,15 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1556,16 +1562,16 @@
       <c r="I2">
         <v>73</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1591,16 +1597,16 @@
       <c r="I3">
         <v>75</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
         <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1626,16 +1632,16 @@
       <c r="I4">
         <v>75</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
         <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1661,16 +1667,16 @@
       <c r="I5">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
         <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1696,16 +1702,16 @@
       <c r="I6">
         <v>70</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
         <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1731,16 +1737,16 @@
       <c r="I7">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
         <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1766,16 +1772,16 @@
       <c r="I8">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
         <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1801,16 +1807,16 @@
       <c r="I9">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
+      <c r="J9">
         <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1836,16 +1842,16 @@
       <c r="I10">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
+      <c r="J10">
         <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1871,16 +1877,16 @@
       <c r="I11">
         <v>64</v>
       </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
+      <c r="J11">
         <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1906,16 +1912,16 @@
       <c r="I12">
         <v>59</v>
       </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
+      <c r="J12">
         <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1941,16 +1947,16 @@
       <c r="I13">
         <v>61</v>
       </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13">
+      <c r="J13">
         <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1976,16 +1982,16 @@
       <c r="I14">
         <v>59</v>
       </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
+      <c r="J14">
         <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2011,16 +2017,16 @@
       <c r="I15">
         <v>59</v>
       </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
+      <c r="J15">
         <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2046,16 +2052,16 @@
       <c r="I16">
         <v>61</v>
       </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
+      <c r="J16">
         <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2081,16 +2087,16 @@
       <c r="I17">
         <v>56</v>
       </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
+      <c r="J17">
         <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2116,16 +2122,16 @@
       <c r="I18">
         <v>56</v>
       </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
+      <c r="J18">
         <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2151,16 +2157,16 @@
       <c r="I19">
         <v>52</v>
       </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
+      <c r="J19">
         <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -2186,16 +2192,16 @@
       <c r="I20">
         <v>51</v>
       </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
+      <c r="J20">
         <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2221,16 +2227,16 @@
       <c r="I21">
         <v>54</v>
       </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
+      <c r="J21">
         <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2256,16 +2262,16 @@
       <c r="I22">
         <v>50</v>
       </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22">
+      <c r="J22">
         <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2291,16 +2297,16 @@
       <c r="I23">
         <v>53</v>
       </c>
-      <c r="J23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23">
+      <c r="J23">
         <v>10</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2326,16 +2332,16 @@
       <c r="I24">
         <v>56</v>
       </c>
-      <c r="J24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
+      <c r="J24">
         <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2361,16 +2367,16 @@
       <c r="I25">
         <v>53</v>
       </c>
-      <c r="J25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25">
+      <c r="J25">
         <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -2396,16 +2402,16 @@
       <c r="I26">
         <v>53</v>
       </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26">
+      <c r="J26">
         <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2431,16 +2437,16 @@
       <c r="I27">
         <v>51</v>
       </c>
-      <c r="J27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27">
+      <c r="J27">
         <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -2466,16 +2472,16 @@
       <c r="I28">
         <v>49</v>
       </c>
-      <c r="J28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28">
+      <c r="J28">
         <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2501,16 +2507,16 @@
       <c r="I29">
         <v>49</v>
       </c>
-      <c r="J29" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29">
+      <c r="J29">
         <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2536,16 +2542,16 @@
       <c r="I30">
         <v>47</v>
       </c>
-      <c r="J30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30">
+      <c r="J30">
         <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2571,16 +2577,16 @@
       <c r="I31">
         <v>50</v>
       </c>
-      <c r="J31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31">
+      <c r="J31">
         <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -2606,16 +2612,16 @@
       <c r="I32">
         <v>50</v>
       </c>
-      <c r="J32" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32">
+      <c r="J32">
         <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2641,16 +2647,16 @@
       <c r="I33">
         <v>48</v>
       </c>
-      <c r="J33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33">
+      <c r="J33">
         <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2676,16 +2682,16 @@
       <c r="I34">
         <v>51</v>
       </c>
-      <c r="J34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34">
+      <c r="J34">
         <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2711,16 +2717,16 @@
       <c r="I35">
         <v>44</v>
       </c>
-      <c r="J35" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35">
+      <c r="J35">
         <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2746,16 +2752,16 @@
       <c r="I36">
         <v>45</v>
       </c>
-      <c r="J36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K36">
+      <c r="J36">
         <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -2781,16 +2787,16 @@
       <c r="I37">
         <v>46</v>
       </c>
-      <c r="J37" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37">
+      <c r="J37">
         <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -2816,16 +2822,16 @@
       <c r="I38">
         <v>47</v>
       </c>
-      <c r="J38" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38">
+      <c r="J38">
         <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -2851,16 +2857,16 @@
       <c r="I39">
         <v>43</v>
       </c>
-      <c r="J39" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39">
+      <c r="J39">
         <v>6</v>
+      </c>
+      <c r="K39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -2886,16 +2892,16 @@
       <c r="I40">
         <v>45</v>
       </c>
-      <c r="J40" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40">
+      <c r="J40">
         <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -2921,16 +2927,16 @@
       <c r="I41">
         <v>42</v>
       </c>
-      <c r="J41" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41">
+      <c r="J41">
         <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -2956,16 +2962,16 @@
       <c r="I42">
         <v>45</v>
       </c>
-      <c r="J42" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42">
+      <c r="J42">
         <v>11</v>
+      </c>
+      <c r="K42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -2991,16 +2997,16 @@
       <c r="I43">
         <v>45</v>
       </c>
-      <c r="J43" t="s">
-        <v>94</v>
-      </c>
-      <c r="K43">
+      <c r="J43">
         <v>12</v>
+      </c>
+      <c r="K43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -3026,16 +3032,16 @@
       <c r="I44">
         <v>44</v>
       </c>
-      <c r="J44" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44">
+      <c r="J44">
         <v>8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -3061,16 +3067,16 @@
       <c r="I45">
         <v>42</v>
       </c>
-      <c r="J45" t="s">
-        <v>98</v>
-      </c>
-      <c r="K45">
+      <c r="J45">
         <v>7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -3096,16 +3102,16 @@
       <c r="I46">
         <v>43</v>
       </c>
-      <c r="J46" t="s">
-        <v>100</v>
-      </c>
-      <c r="K46">
+      <c r="J46">
         <v>6</v>
+      </c>
+      <c r="K46" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -3131,16 +3137,16 @@
       <c r="I47">
         <v>44</v>
       </c>
-      <c r="J47" t="s">
-        <v>102</v>
-      </c>
-      <c r="K47">
+      <c r="J47">
         <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3166,16 +3172,16 @@
       <c r="I48">
         <v>41</v>
       </c>
-      <c r="J48" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48">
+      <c r="J48">
         <v>7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -3201,16 +3207,16 @@
       <c r="I49">
         <v>42</v>
       </c>
-      <c r="J49" t="s">
-        <v>106</v>
-      </c>
-      <c r="K49">
+      <c r="J49">
         <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -3236,16 +3242,16 @@
       <c r="I50">
         <v>40</v>
       </c>
-      <c r="J50" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50">
+      <c r="J50">
         <v>8</v>
+      </c>
+      <c r="K50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3271,16 +3277,16 @@
       <c r="I51">
         <v>39</v>
       </c>
-      <c r="J51" t="s">
-        <v>110</v>
-      </c>
-      <c r="K51">
+      <c r="J51">
         <v>10</v>
+      </c>
+      <c r="K51" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -3306,16 +3312,16 @@
       <c r="I52">
         <v>36</v>
       </c>
-      <c r="J52" t="s">
-        <v>112</v>
-      </c>
-      <c r="K52">
+      <c r="J52">
         <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53">
         <v>11</v>
@@ -3341,16 +3347,16 @@
       <c r="I53">
         <v>40</v>
       </c>
-      <c r="J53" t="s">
-        <v>114</v>
-      </c>
-      <c r="K53">
+      <c r="J53">
         <v>7</v>
+      </c>
+      <c r="K53" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -3376,16 +3382,16 @@
       <c r="I54">
         <v>37</v>
       </c>
-      <c r="J54" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54">
+      <c r="J54">
         <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -3411,16 +3417,16 @@
       <c r="I55">
         <v>38</v>
       </c>
-      <c r="J55" t="s">
-        <v>118</v>
-      </c>
-      <c r="K55">
+      <c r="J55">
         <v>7</v>
+      </c>
+      <c r="K55" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56">
         <v>13</v>
@@ -3446,16 +3452,16 @@
       <c r="I56">
         <v>38</v>
       </c>
-      <c r="J56" t="s">
-        <v>120</v>
-      </c>
-      <c r="K56">
+      <c r="J56">
         <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -3481,16 +3487,16 @@
       <c r="I57">
         <v>39</v>
       </c>
-      <c r="J57" t="s">
-        <v>122</v>
-      </c>
-      <c r="K57">
+      <c r="J57">
         <v>7</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -3516,16 +3522,16 @@
       <c r="I58">
         <v>38</v>
       </c>
-      <c r="J58" t="s">
-        <v>124</v>
-      </c>
-      <c r="K58">
+      <c r="J58">
         <v>12</v>
+      </c>
+      <c r="K58" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59">
         <v>11</v>
@@ -3551,16 +3557,16 @@
       <c r="I59">
         <v>35</v>
       </c>
-      <c r="J59" t="s">
-        <v>126</v>
-      </c>
-      <c r="K59">
+      <c r="J59">
         <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>13</v>
@@ -3590,12 +3596,12 @@
         <v>128</v>
       </c>
       <c r="K60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -3621,16 +3627,16 @@
       <c r="I61">
         <v>35</v>
       </c>
-      <c r="J61" t="s">
-        <v>131</v>
-      </c>
-      <c r="K61">
+      <c r="J61">
         <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -3656,16 +3662,16 @@
       <c r="I62">
         <v>36</v>
       </c>
-      <c r="J62" t="s">
-        <v>133</v>
-      </c>
-      <c r="K62">
+      <c r="J62">
         <v>12</v>
+      </c>
+      <c r="K62" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63">
         <v>13</v>
@@ -3691,16 +3697,16 @@
       <c r="I63">
         <v>37</v>
       </c>
-      <c r="J63" t="s">
-        <v>135</v>
-      </c>
-      <c r="K63">
+      <c r="J63">
         <v>13</v>
+      </c>
+      <c r="K63" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -3726,16 +3732,16 @@
       <c r="I64">
         <v>35</v>
       </c>
-      <c r="J64" t="s">
-        <v>137</v>
-      </c>
-      <c r="K64">
+      <c r="J64">
         <v>5</v>
+      </c>
+      <c r="K64" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -3761,16 +3767,16 @@
       <c r="I65">
         <v>37</v>
       </c>
-      <c r="J65" t="s">
-        <v>139</v>
-      </c>
-      <c r="K65">
+      <c r="J65">
         <v>7</v>
+      </c>
+      <c r="K65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66">
         <v>16</v>
@@ -3796,16 +3802,16 @@
       <c r="I66">
         <v>31</v>
       </c>
-      <c r="J66" t="s">
-        <v>141</v>
-      </c>
-      <c r="K66">
+      <c r="J66">
         <v>13</v>
+      </c>
+      <c r="K66" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67">
         <v>15</v>
@@ -3831,16 +3837,16 @@
       <c r="I67">
         <v>32</v>
       </c>
-      <c r="J67" t="s">
-        <v>143</v>
-      </c>
-      <c r="K67">
+      <c r="J67">
         <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68">
         <v>15</v>
@@ -3866,16 +3872,16 @@
       <c r="I68">
         <v>32</v>
       </c>
-      <c r="J68" t="s">
-        <v>145</v>
-      </c>
-      <c r="K68">
+      <c r="J68">
         <v>3</v>
+      </c>
+      <c r="K68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <v>14</v>
@@ -3901,16 +3907,16 @@
       <c r="I69">
         <v>33</v>
       </c>
-      <c r="J69" t="s">
-        <v>147</v>
-      </c>
-      <c r="K69">
+      <c r="J69">
         <v>11</v>
+      </c>
+      <c r="K69" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -3936,16 +3942,16 @@
       <c r="I70">
         <v>34</v>
       </c>
-      <c r="J70" t="s">
-        <v>149</v>
-      </c>
-      <c r="K70">
+      <c r="J70">
         <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -3971,16 +3977,16 @@
       <c r="I71">
         <v>33</v>
       </c>
-      <c r="J71" t="s">
-        <v>151</v>
-      </c>
-      <c r="K71">
+      <c r="J71">
         <v>7</v>
+      </c>
+      <c r="K71" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72">
         <v>15</v>
@@ -4006,16 +4012,16 @@
       <c r="I72">
         <v>31</v>
       </c>
-      <c r="J72" t="s">
-        <v>153</v>
-      </c>
-      <c r="K72">
+      <c r="J72">
         <v>5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -4041,16 +4047,16 @@
       <c r="I73">
         <v>30</v>
       </c>
-      <c r="J73" t="s">
-        <v>155</v>
-      </c>
-      <c r="K73">
+      <c r="J73">
         <v>9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74">
         <v>14</v>
@@ -4076,16 +4082,16 @@
       <c r="I74">
         <v>33</v>
       </c>
-      <c r="J74" t="s">
-        <v>157</v>
-      </c>
-      <c r="K74">
+      <c r="J74">
         <v>5</v>
+      </c>
+      <c r="K74" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B75">
         <v>15</v>
@@ -4111,16 +4117,16 @@
       <c r="I75">
         <v>31</v>
       </c>
-      <c r="J75" t="s">
-        <v>159</v>
-      </c>
-      <c r="K75">
+      <c r="J75">
         <v>8</v>
+      </c>
+      <c r="K75" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B76">
         <v>14</v>
@@ -4146,16 +4152,16 @@
       <c r="I76">
         <v>29</v>
       </c>
-      <c r="J76" t="s">
-        <v>161</v>
-      </c>
-      <c r="K76">
+      <c r="J76">
         <v>9</v>
+      </c>
+      <c r="K76" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -4181,16 +4187,16 @@
       <c r="I77">
         <v>31</v>
       </c>
-      <c r="J77" t="s">
-        <v>163</v>
-      </c>
-      <c r="K77">
+      <c r="J77">
         <v>8</v>
+      </c>
+      <c r="K77" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -4216,16 +4222,16 @@
       <c r="I78">
         <v>30</v>
       </c>
-      <c r="J78" t="s">
-        <v>165</v>
-      </c>
-      <c r="K78">
+      <c r="J78">
         <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -4251,16 +4257,16 @@
       <c r="I79">
         <v>29</v>
       </c>
-      <c r="J79" t="s">
-        <v>167</v>
-      </c>
-      <c r="K79">
+      <c r="J79">
         <v>15</v>
+      </c>
+      <c r="K79" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B80">
         <v>19</v>
@@ -4286,16 +4292,16 @@
       <c r="I80">
         <v>27</v>
       </c>
-      <c r="J80" t="s">
-        <v>169</v>
-      </c>
-      <c r="K80">
+      <c r="J80">
         <v>5</v>
+      </c>
+      <c r="K80" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -4321,16 +4327,16 @@
       <c r="I81">
         <v>28</v>
       </c>
-      <c r="J81" t="s">
-        <v>171</v>
-      </c>
-      <c r="K81">
+      <c r="J81">
         <v>7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B82">
         <v>18</v>
@@ -4356,16 +4362,16 @@
       <c r="I82">
         <v>28</v>
       </c>
-      <c r="J82" t="s">
-        <v>173</v>
-      </c>
-      <c r="K82">
+      <c r="J82">
         <v>12</v>
+      </c>
+      <c r="K82" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83">
         <v>15</v>
@@ -4391,16 +4397,16 @@
       <c r="I83">
         <v>27</v>
       </c>
-      <c r="J83" t="s">
-        <v>175</v>
-      </c>
-      <c r="K83">
+      <c r="J83">
         <v>8</v>
+      </c>
+      <c r="K83" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -4426,16 +4432,16 @@
       <c r="I84">
         <v>29</v>
       </c>
-      <c r="J84" t="s">
-        <v>177</v>
-      </c>
-      <c r="K84">
+      <c r="J84">
         <v>11</v>
+      </c>
+      <c r="K84" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B85">
         <v>17</v>
@@ -4461,16 +4467,16 @@
       <c r="I85">
         <v>28</v>
       </c>
-      <c r="J85" t="s">
-        <v>179</v>
-      </c>
-      <c r="K85">
+      <c r="J85">
         <v>10</v>
+      </c>
+      <c r="K85" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B86">
         <v>18</v>
@@ -4496,16 +4502,16 @@
       <c r="I86">
         <v>28</v>
       </c>
-      <c r="J86" t="s">
-        <v>181</v>
-      </c>
-      <c r="K86">
+      <c r="J86">
         <v>4</v>
+      </c>
+      <c r="K86" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -4531,16 +4537,16 @@
       <c r="I87">
         <v>27</v>
       </c>
-      <c r="J87" t="s">
-        <v>183</v>
-      </c>
-      <c r="K87">
+      <c r="J87">
         <v>13</v>
+      </c>
+      <c r="K87" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88">
         <v>16</v>
@@ -4566,16 +4572,16 @@
       <c r="I88">
         <v>25</v>
       </c>
-      <c r="J88" t="s">
-        <v>185</v>
-      </c>
-      <c r="K88">
+      <c r="J88">
         <v>7</v>
+      </c>
+      <c r="K88" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B89">
         <v>17</v>
@@ -4601,16 +4607,16 @@
       <c r="I89">
         <v>24</v>
       </c>
-      <c r="J89" t="s">
-        <v>187</v>
-      </c>
-      <c r="K89">
+      <c r="J89">
         <v>9</v>
+      </c>
+      <c r="K89" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B90">
         <v>18</v>
@@ -4636,16 +4642,16 @@
       <c r="I90">
         <v>26</v>
       </c>
-      <c r="J90" t="s">
-        <v>189</v>
-      </c>
-      <c r="K90">
+      <c r="J90">
         <v>4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B91">
         <v>19</v>
@@ -4671,16 +4677,16 @@
       <c r="I91">
         <v>27</v>
       </c>
-      <c r="J91" t="s">
-        <v>191</v>
-      </c>
-      <c r="K91">
+      <c r="J91">
         <v>8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -4706,16 +4712,16 @@
       <c r="I92">
         <v>22</v>
       </c>
-      <c r="J92" t="s">
-        <v>193</v>
-      </c>
-      <c r="K92">
+      <c r="J92">
         <v>11</v>
+      </c>
+      <c r="K92" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93">
         <v>20</v>
@@ -4745,12 +4751,12 @@
         <v>195</v>
       </c>
       <c r="K93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B94">
         <v>18</v>
@@ -4776,16 +4782,16 @@
       <c r="I94">
         <v>21</v>
       </c>
-      <c r="J94" t="s">
-        <v>198</v>
-      </c>
-      <c r="K94">
+      <c r="J94">
         <v>11</v>
+      </c>
+      <c r="K94" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -4811,16 +4817,16 @@
       <c r="I95">
         <v>21</v>
       </c>
-      <c r="J95" t="s">
-        <v>200</v>
-      </c>
-      <c r="K95">
+      <c r="J95">
         <v>6</v>
+      </c>
+      <c r="K95" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -4846,16 +4852,16 @@
       <c r="I96">
         <v>19</v>
       </c>
-      <c r="J96" t="s">
-        <v>202</v>
-      </c>
-      <c r="K96">
+      <c r="J96">
         <v>6</v>
+      </c>
+      <c r="K96" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97">
         <v>20</v>
@@ -4881,16 +4887,16 @@
       <c r="I97">
         <v>17</v>
       </c>
-      <c r="J97" t="s">
-        <v>204</v>
-      </c>
-      <c r="K97">
+      <c r="J97">
         <v>6</v>
+      </c>
+      <c r="K97" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B98">
         <v>20</v>
@@ -4916,16 +4922,16 @@
       <c r="I98">
         <v>13</v>
       </c>
-      <c r="J98" t="s">
-        <v>206</v>
-      </c>
-      <c r="K98">
+      <c r="J98">
         <v>6</v>
+      </c>
+      <c r="K98" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B99">
         <v>20</v>
@@ -4951,11 +4957,11 @@
       <c r="I99">
         <v>14</v>
       </c>
-      <c r="J99" t="s">
-        <v>208</v>
-      </c>
-      <c r="K99">
+      <c r="J99">
         <v>4</v>
+      </c>
+      <c r="K99" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/archive/foot_stats.xlsx
+++ b/archive/foot_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A0165-FB54-4D28-9B64-D40002E9107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCD97D-19D2-4F6F-9482-E56DE3B5AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="6375" windowWidth="18930" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foot_stats" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Time</t>
   </si>
@@ -403,12 +403,6 @@
     <t>Sevilla  - ESP</t>
   </si>
   <si>
-    <t>Youssef En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesyri </t>
-  </si>
-  <si>
     <t>Werder Bremen  - GER</t>
   </si>
   <si>
@@ -604,12 +598,6 @@
     <t>Southampton  - ENG</t>
   </si>
   <si>
-    <t>James Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prowse </t>
-  </si>
-  <si>
     <t>Troyes  - FRA</t>
   </si>
   <si>
@@ -647,6 +635,12 @@
   </si>
   <si>
     <t>QG</t>
+  </si>
+  <si>
+    <t>James Ward Prowse</t>
+  </si>
+  <si>
+    <t>Youssef En Nesyri</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1484,7 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1522,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -3592,16 +3586,16 @@
       <c r="I60">
         <v>35</v>
       </c>
-      <c r="J60" t="s">
-        <v>128</v>
+      <c r="J60">
+        <v>7</v>
       </c>
       <c r="K60" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -3631,12 +3625,12 @@
         <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -3666,12 +3660,12 @@
         <v>12</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B63">
         <v>13</v>
@@ -3701,12 +3695,12 @@
         <v>13</v>
       </c>
       <c r="K63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -3736,12 +3730,12 @@
         <v>5</v>
       </c>
       <c r="K64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -3771,12 +3765,12 @@
         <v>7</v>
       </c>
       <c r="K65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B66">
         <v>16</v>
@@ -3806,12 +3800,12 @@
         <v>13</v>
       </c>
       <c r="K66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67">
         <v>15</v>
@@ -3841,12 +3835,12 @@
         <v>4</v>
       </c>
       <c r="K67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B68">
         <v>15</v>
@@ -3876,12 +3870,12 @@
         <v>3</v>
       </c>
       <c r="K68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69">
         <v>14</v>
@@ -3911,12 +3905,12 @@
         <v>11</v>
       </c>
       <c r="K69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -3946,12 +3940,12 @@
         <v>6</v>
       </c>
       <c r="K70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -3981,12 +3975,12 @@
         <v>7</v>
       </c>
       <c r="K71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B72">
         <v>15</v>
@@ -4016,12 +4010,12 @@
         <v>5</v>
       </c>
       <c r="K72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -4051,12 +4045,12 @@
         <v>9</v>
       </c>
       <c r="K73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>14</v>
@@ -4086,12 +4080,12 @@
         <v>5</v>
       </c>
       <c r="K74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75">
         <v>15</v>
@@ -4121,12 +4115,12 @@
         <v>8</v>
       </c>
       <c r="K75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B76">
         <v>14</v>
@@ -4156,12 +4150,12 @@
         <v>9</v>
       </c>
       <c r="K76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -4191,12 +4185,12 @@
         <v>8</v>
       </c>
       <c r="K77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -4226,12 +4220,12 @@
         <v>6</v>
       </c>
       <c r="K78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -4261,12 +4255,12 @@
         <v>15</v>
       </c>
       <c r="K79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B80">
         <v>19</v>
@@ -4296,12 +4290,12 @@
         <v>5</v>
       </c>
       <c r="K80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -4331,12 +4325,12 @@
         <v>7</v>
       </c>
       <c r="K81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B82">
         <v>18</v>
@@ -4366,12 +4360,12 @@
         <v>12</v>
       </c>
       <c r="K82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B83">
         <v>15</v>
@@ -4401,12 +4395,12 @@
         <v>8</v>
       </c>
       <c r="K83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -4436,12 +4430,12 @@
         <v>11</v>
       </c>
       <c r="K84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B85">
         <v>17</v>
@@ -4471,12 +4465,12 @@
         <v>10</v>
       </c>
       <c r="K85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B86">
         <v>18</v>
@@ -4506,12 +4500,12 @@
         <v>4</v>
       </c>
       <c r="K86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -4541,12 +4535,12 @@
         <v>13</v>
       </c>
       <c r="K87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B88">
         <v>16</v>
@@ -4576,12 +4570,12 @@
         <v>7</v>
       </c>
       <c r="K88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B89">
         <v>17</v>
@@ -4611,12 +4605,12 @@
         <v>9</v>
       </c>
       <c r="K89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B90">
         <v>18</v>
@@ -4646,12 +4640,12 @@
         <v>4</v>
       </c>
       <c r="K90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B91">
         <v>19</v>
@@ -4681,12 +4675,12 @@
         <v>8</v>
       </c>
       <c r="K91" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -4716,12 +4710,12 @@
         <v>11</v>
       </c>
       <c r="K92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B93">
         <v>20</v>
@@ -4747,16 +4741,16 @@
       <c r="I93">
         <v>24</v>
       </c>
-      <c r="J93" t="s">
-        <v>195</v>
+      <c r="J93">
+        <v>7</v>
       </c>
       <c r="K93" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B94">
         <v>18</v>
@@ -4786,12 +4780,12 @@
         <v>11</v>
       </c>
       <c r="K94" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -4821,12 +4815,12 @@
         <v>6</v>
       </c>
       <c r="K95" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -4856,12 +4850,12 @@
         <v>6</v>
       </c>
       <c r="K96" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B97">
         <v>20</v>
@@ -4891,12 +4885,12 @@
         <v>6</v>
       </c>
       <c r="K97" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B98">
         <v>20</v>
@@ -4926,12 +4920,12 @@
         <v>6</v>
       </c>
       <c r="K98" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B99">
         <v>20</v>
@@ -4961,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="K99" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
